--- a/docs/Classification Reports/random_forest.xlsx
+++ b/docs/Classification Reports/random_forest.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9407894736842105</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.934640522875817</v>
+        <v>0.9084745762711864</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9299363057324841</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9449838187702265</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.9363057324840764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9652777777777778</v>
+        <v>0.9735099337748344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.972027972027972</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9103448275862069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9364548494983277</v>
+        <v>0.8770764119601329</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9283333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9472559038441174</v>
+        <v>0.9282392165941474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9470961273938561</v>
+        <v>0.929193670984034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9470267907930858</v>
+        <v>0.9282673539374368</v>
       </c>
       <c r="E7" t="n">
         <v>600</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9471632867379716</v>
+        <v>0.9282154867364619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9467645164538865</v>
+        <v>0.9278151624357773</v>
       </c>
       <c r="E8" t="n">
         <v>600</v>
